--- a/medicine/Psychotrope/Grolleau/Grolleau.xlsx
+++ b/medicine/Psychotrope/Grolleau/Grolleau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  grolleau est un cépage de France de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le grolleau est un cépage de vigne assez peu répandu en France.
 En France, sa culture est en régression : 2.201 hectares en 2004 contre 11.400 en 1958. Elle est surtout concentrée dans la vallée de la Loire.
@@ -545,7 +559,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc à liseré carminé.
 Jeune feuilles aranéeuses, très bronzées
@@ -577,7 +593,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque: 20 jours après le chasselas.
 </t>
@@ -608,7 +626,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont assez grosses et les baies sont de taille moyenne. La grappe est tronconique, ailée. Le cépage est vigoureux et il doit être taillé court. Il est sensible à l’excoriose, à la pourriture pédonculaire et le court-noué.
 C'est un cépage productif (rendement compris entre 80 et 120 hectolitres à l'hectare). Ses vins sont légers et peu alcooliques. Souvent vinifié en rosé, le grolleau a été classé recommandé dans la vallée de la Loire et le Sud-Ouest.
@@ -641,7 +661,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  grolleau est connu sous les noms Bourdalès, Gamay groslot, Grolleau de Cinq-Mars, Grolleau de Tourraine, Grolleau de Tours, Groslot, Moinard, Pineau de Saumur, Plant boisnard, Plant mini
 </t>
@@ -672,7 +694,9 @@
           <t>Variétés et enregistrements OIV</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans l’ouvrage de l’OIV « Liste internationales des variétés
 de vigne et de leurs synonymes », mise à jour du 2013, l’on retrouve la variété Grolleau dans 5 enregistrements. Le détail suit :
